--- a/0_drop_list.xlsx
+++ b/0_drop_list.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksmir\PycharmProjects\poor-almanac-8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9791720-EBF0-472B-80AC-D98F834DE99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B6E96D-B2B4-4DD6-910F-CFB5DC0AFCA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19656" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="36" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterate="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>symbol</t>
   </si>
@@ -53,12 +63,6 @@
   </si>
   <si>
     <t>NL</t>
-  </si>
-  <si>
-    <t>SK</t>
-  </si>
-  <si>
-    <t>CH</t>
   </si>
   <si>
     <t>TW</t>
@@ -430,7 +434,7 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,8 +516,8 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>0</v>
+      <c r="D6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -526,8 +530,8 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>0</v>
+      <c r="D7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -541,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -554,8 +558,8 @@
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9" t="s">
-        <v>12</v>
+      <c r="D9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -568,8 +572,8 @@
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10" t="s">
-        <v>13</v>
+      <c r="D10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -582,8 +586,8 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11" t="s">
-        <v>14</v>
+      <c r="D11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -596,8 +600,8 @@
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12" t="s">
-        <v>10</v>
+      <c r="D12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">

--- a/0_drop_list.xlsx
+++ b/0_drop_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksmir\PycharmProjects\poor-almanac-8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B6E96D-B2B4-4DD6-910F-CFB5DC0AFCA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F761AA6C-F4FE-4779-9A3C-5786F6A3803F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="36" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>symbol</t>
   </si>
@@ -65,10 +65,121 @@
     <t>NL</t>
   </si>
   <si>
-    <t>TW</t>
-  </si>
-  <si>
-    <t>AT</t>
+    <t>Banks</t>
+  </si>
+  <si>
+    <t>Banks?Diversified</t>
+  </si>
+  <si>
+    <t>Banks?Regional</t>
+  </si>
+  <si>
+    <t>Capital Markets</t>
+  </si>
+  <si>
+    <t>Closed-End Fund - Equity</t>
+  </si>
+  <si>
+    <t>Education &amp; Training Services</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Insurance Specialty</t>
+  </si>
+  <si>
+    <t>Insurance?Diversified</t>
+  </si>
+  <si>
+    <t>Insurance?Life</t>
+  </si>
+  <si>
+    <t>Insurance?Property &amp; Casualty</t>
+  </si>
+  <si>
+    <t>Insurance?Reinsurance</t>
+  </si>
+  <si>
+    <t>Insurance?Specialty</t>
+  </si>
+  <si>
+    <t>Medical Care Facilities</t>
+  </si>
+  <si>
+    <t>Medical Devices</t>
+  </si>
+  <si>
+    <t>Medical Distribution</t>
+  </si>
+  <si>
+    <t>Medical Instruments &amp; Supplies</t>
+  </si>
+  <si>
+    <t>Mortgage Finance</t>
+  </si>
+  <si>
+    <t>Real Estate</t>
+  </si>
+  <si>
+    <t>Real Estate Services</t>
+  </si>
+  <si>
+    <t>Real Estate?Development</t>
+  </si>
+  <si>
+    <t>Real Estate?Diversified</t>
+  </si>
+  <si>
+    <t>REIT?Diversified</t>
+  </si>
+  <si>
+    <t>REIT?Healthcare Facilities</t>
+  </si>
+  <si>
+    <t>REIT?Hotel &amp; Motel</t>
+  </si>
+  <si>
+    <t>REIT?Industrial</t>
+  </si>
+  <si>
+    <t>REIT?Mortgage</t>
+  </si>
+  <si>
+    <t>REIT?Office</t>
+  </si>
+  <si>
+    <t>REIT?Residential</t>
+  </si>
+  <si>
+    <t>REIT?Retail</t>
+  </si>
+  <si>
+    <t>REIT?Specialty</t>
+  </si>
+  <si>
+    <t>Rental &amp; Leasing Services</t>
+  </si>
+  <si>
+    <t>IDK</t>
+  </si>
+  <si>
+    <t>PCG-PI</t>
+  </si>
+  <si>
+    <t>PCG-PE</t>
+  </si>
+  <si>
+    <t>FLSS</t>
+  </si>
+  <si>
+    <t>SIRR</t>
+  </si>
+  <si>
+    <t>SLNG.G</t>
+  </si>
+  <si>
+    <t>DYNR</t>
   </si>
 </sst>
 </file>
@@ -431,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,8 +565,8 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>44</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -468,8 +579,8 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0</v>
+      <c r="B3" t="s">
+        <v>45</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -482,8 +593,8 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0</v>
+      <c r="B4" t="s">
+        <v>46</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -496,11 +607,11 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -510,28 +621,28 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -541,11 +652,11 @@
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -555,8 +666,8 @@
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9">
-        <v>0</v>
+      <c r="C9" t="s">
+        <v>15</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -569,8 +680,8 @@
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10">
-        <v>0</v>
+      <c r="C10" t="s">
+        <v>16</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -583,8 +694,8 @@
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11">
-        <v>0</v>
+      <c r="C11" t="s">
+        <v>17</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -597,8 +708,8 @@
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12">
-        <v>0</v>
+      <c r="C12" t="s">
+        <v>18</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -611,8 +722,8 @@
       <c r="B13">
         <v>0</v>
       </c>
-      <c r="C13">
-        <v>0</v>
+      <c r="C13" t="s">
+        <v>19</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -625,8 +736,8 @@
       <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14">
-        <v>0</v>
+      <c r="C14" t="s">
+        <v>20</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -639,8 +750,8 @@
       <c r="B15">
         <v>0</v>
       </c>
-      <c r="C15">
-        <v>0</v>
+      <c r="C15" t="s">
+        <v>21</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -653,8 +764,8 @@
       <c r="B16">
         <v>0</v>
       </c>
-      <c r="C16">
-        <v>0</v>
+      <c r="C16" t="s">
+        <v>22</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -667,8 +778,8 @@
       <c r="B17">
         <v>0</v>
       </c>
-      <c r="C17">
-        <v>0</v>
+      <c r="C17" t="s">
+        <v>23</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -681,8 +792,8 @@
       <c r="B18">
         <v>0</v>
       </c>
-      <c r="C18">
-        <v>0</v>
+      <c r="C18" t="s">
+        <v>24</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -695,8 +806,8 @@
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19">
-        <v>0</v>
+      <c r="C19" t="s">
+        <v>25</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -709,8 +820,8 @@
       <c r="B20">
         <v>0</v>
       </c>
-      <c r="C20">
-        <v>0</v>
+      <c r="C20" t="s">
+        <v>26</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -723,8 +834,8 @@
       <c r="B21">
         <v>0</v>
       </c>
-      <c r="C21">
-        <v>0</v>
+      <c r="C21" t="s">
+        <v>27</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -737,8 +848,8 @@
       <c r="B22">
         <v>0</v>
       </c>
-      <c r="C22">
-        <v>0</v>
+      <c r="C22" t="s">
+        <v>28</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -751,8 +862,8 @@
       <c r="B23">
         <v>0</v>
       </c>
-      <c r="C23">
-        <v>0</v>
+      <c r="C23" t="s">
+        <v>29</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -765,8 +876,8 @@
       <c r="B24">
         <v>0</v>
       </c>
-      <c r="C24">
-        <v>0</v>
+      <c r="C24" t="s">
+        <v>30</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -779,8 +890,8 @@
       <c r="B25">
         <v>0</v>
       </c>
-      <c r="C25">
-        <v>0</v>
+      <c r="C25" t="s">
+        <v>31</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -793,8 +904,8 @@
       <c r="B26">
         <v>0</v>
       </c>
-      <c r="C26">
-        <v>0</v>
+      <c r="C26" t="s">
+        <v>32</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -807,8 +918,8 @@
       <c r="B27">
         <v>0</v>
       </c>
-      <c r="C27">
-        <v>0</v>
+      <c r="C27" t="s">
+        <v>33</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -821,8 +932,8 @@
       <c r="B28">
         <v>0</v>
       </c>
-      <c r="C28">
-        <v>0</v>
+      <c r="C28" t="s">
+        <v>34</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -835,8 +946,8 @@
       <c r="B29">
         <v>0</v>
       </c>
-      <c r="C29">
-        <v>0</v>
+      <c r="C29" t="s">
+        <v>35</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -849,8 +960,8 @@
       <c r="B30">
         <v>0</v>
       </c>
-      <c r="C30">
-        <v>0</v>
+      <c r="C30" t="s">
+        <v>36</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -863,8 +974,8 @@
       <c r="B31">
         <v>0</v>
       </c>
-      <c r="C31">
-        <v>0</v>
+      <c r="C31" t="s">
+        <v>37</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -877,8 +988,8 @@
       <c r="B32">
         <v>0</v>
       </c>
-      <c r="C32">
-        <v>0</v>
+      <c r="C32" t="s">
+        <v>38</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -891,8 +1002,8 @@
       <c r="B33">
         <v>0</v>
       </c>
-      <c r="C33">
-        <v>0</v>
+      <c r="C33" t="s">
+        <v>39</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -905,8 +1016,8 @@
       <c r="B34">
         <v>0</v>
       </c>
-      <c r="C34">
-        <v>0</v>
+      <c r="C34" t="s">
+        <v>40</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -919,8 +1030,8 @@
       <c r="B35">
         <v>0</v>
       </c>
-      <c r="C35">
-        <v>0</v>
+      <c r="C35" t="s">
+        <v>41</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -933,234 +1044,10 @@
       <c r="B36">
         <v>0</v>
       </c>
-      <c r="C36">
-        <v>0</v>
+      <c r="C36" t="s">
+        <v>42</v>
       </c>
       <c r="D36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
         <v>0</v>
       </c>
     </row>

--- a/0_drop_list.xlsx
+++ b/0_drop_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksmir\PycharmProjects\poor-almanac-8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F761AA6C-F4FE-4779-9A3C-5786F6A3803F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E8097D-DAA2-41CD-8CE2-78ADBA258D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>symbol</t>
   </si>
@@ -180,6 +180,12 @@
   </si>
   <si>
     <t>DYNR</t>
+  </si>
+  <si>
+    <t>Conglomerates</t>
+  </si>
+  <si>
+    <t>Credit Services</t>
   </si>
 </sst>
 </file>
@@ -208,7 +214,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -231,13 +237,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -542,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1051,6 +1071,34 @@
         <v>0</v>
       </c>
     </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/0_drop_list.xlsx
+++ b/0_drop_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksmir\PycharmProjects\poor-almanac-8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E8097D-DAA2-41CD-8CE2-78ADBA258D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29638DF-19AD-44C0-9980-EBBEB7CC541E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>symbol</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>Credit Services</t>
+  </si>
+  <si>
+    <t>Broadcasting</t>
   </si>
 </sst>
 </file>
@@ -562,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1099,6 +1102,20 @@
         <v>0</v>
       </c>
     </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/0_drop_list.xlsx
+++ b/0_drop_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksmir\PycharmProjects\poor-almanac-8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29638DF-19AD-44C0-9980-EBBEB7CC541E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B21CF32-10BB-470D-A223-9CD10230CEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19656" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>symbol</t>
   </si>
@@ -41,15 +41,6 @@
     <t>country</t>
   </si>
   <si>
-    <t>Biotechnology</t>
-  </si>
-  <si>
-    <t>Shell Companies</t>
-  </si>
-  <si>
-    <t>Banks—Regional</t>
-  </si>
-  <si>
     <t>US</t>
   </si>
   <si>
@@ -65,102 +56,6 @@
     <t>NL</t>
   </si>
   <si>
-    <t>Banks</t>
-  </si>
-  <si>
-    <t>Banks?Diversified</t>
-  </si>
-  <si>
-    <t>Banks?Regional</t>
-  </si>
-  <si>
-    <t>Capital Markets</t>
-  </si>
-  <si>
-    <t>Closed-End Fund - Equity</t>
-  </si>
-  <si>
-    <t>Education &amp; Training Services</t>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>Insurance Specialty</t>
-  </si>
-  <si>
-    <t>Insurance?Diversified</t>
-  </si>
-  <si>
-    <t>Insurance?Life</t>
-  </si>
-  <si>
-    <t>Insurance?Property &amp; Casualty</t>
-  </si>
-  <si>
-    <t>Insurance?Reinsurance</t>
-  </si>
-  <si>
-    <t>Insurance?Specialty</t>
-  </si>
-  <si>
-    <t>Medical Care Facilities</t>
-  </si>
-  <si>
-    <t>Medical Devices</t>
-  </si>
-  <si>
-    <t>Medical Distribution</t>
-  </si>
-  <si>
-    <t>Medical Instruments &amp; Supplies</t>
-  </si>
-  <si>
-    <t>Mortgage Finance</t>
-  </si>
-  <si>
-    <t>Real Estate</t>
-  </si>
-  <si>
-    <t>Real Estate Services</t>
-  </si>
-  <si>
-    <t>Real Estate?Development</t>
-  </si>
-  <si>
-    <t>Real Estate?Diversified</t>
-  </si>
-  <si>
-    <t>REIT?Diversified</t>
-  </si>
-  <si>
-    <t>REIT?Healthcare Facilities</t>
-  </si>
-  <si>
-    <t>REIT?Hotel &amp; Motel</t>
-  </si>
-  <si>
-    <t>REIT?Industrial</t>
-  </si>
-  <si>
-    <t>REIT?Mortgage</t>
-  </si>
-  <si>
-    <t>REIT?Office</t>
-  </si>
-  <si>
-    <t>REIT?Residential</t>
-  </si>
-  <si>
-    <t>REIT?Retail</t>
-  </si>
-  <si>
-    <t>REIT?Specialty</t>
-  </si>
-  <si>
-    <t>Rental &amp; Leasing Services</t>
-  </si>
-  <si>
     <t>IDK</t>
   </si>
   <si>
@@ -180,15 +75,6 @@
   </si>
   <si>
     <t>DYNR</t>
-  </si>
-  <si>
-    <t>Conglomerates</t>
-  </si>
-  <si>
-    <t>Credit Services</t>
-  </si>
-  <si>
-    <t>Broadcasting</t>
   </si>
 </sst>
 </file>
@@ -565,13 +451,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C41" sqref="C2:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="35.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
@@ -589,13 +478,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -603,13 +492,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -617,13 +506,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
         <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -631,13 +520,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -645,13 +534,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -659,13 +548,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -675,8 +564,8 @@
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8" t="s">
-        <v>14</v>
+      <c r="C8">
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -689,8 +578,8 @@
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9" t="s">
-        <v>15</v>
+      <c r="C9">
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -703,8 +592,8 @@
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10" t="s">
-        <v>16</v>
+      <c r="C10">
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -717,8 +606,8 @@
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11" t="s">
-        <v>17</v>
+      <c r="C11">
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -731,8 +620,8 @@
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12" t="s">
-        <v>18</v>
+      <c r="C12">
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -745,8 +634,8 @@
       <c r="B13">
         <v>0</v>
       </c>
-      <c r="C13" t="s">
-        <v>19</v>
+      <c r="C13">
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -759,8 +648,8 @@
       <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14" t="s">
-        <v>20</v>
+      <c r="C14">
+        <v>0</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -773,8 +662,8 @@
       <c r="B15">
         <v>0</v>
       </c>
-      <c r="C15" t="s">
-        <v>21</v>
+      <c r="C15">
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -787,8 +676,8 @@
       <c r="B16">
         <v>0</v>
       </c>
-      <c r="C16" t="s">
-        <v>22</v>
+      <c r="C16">
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -801,8 +690,8 @@
       <c r="B17">
         <v>0</v>
       </c>
-      <c r="C17" t="s">
-        <v>23</v>
+      <c r="C17">
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -815,8 +704,8 @@
       <c r="B18">
         <v>0</v>
       </c>
-      <c r="C18" t="s">
-        <v>24</v>
+      <c r="C18">
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -829,8 +718,8 @@
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
+      <c r="C19">
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -843,8 +732,8 @@
       <c r="B20">
         <v>0</v>
       </c>
-      <c r="C20" t="s">
-        <v>26</v>
+      <c r="C20">
+        <v>0</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -857,8 +746,8 @@
       <c r="B21">
         <v>0</v>
       </c>
-      <c r="C21" t="s">
-        <v>27</v>
+      <c r="C21">
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -871,8 +760,8 @@
       <c r="B22">
         <v>0</v>
       </c>
-      <c r="C22" t="s">
-        <v>28</v>
+      <c r="C22">
+        <v>0</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -885,8 +774,8 @@
       <c r="B23">
         <v>0</v>
       </c>
-      <c r="C23" t="s">
-        <v>29</v>
+      <c r="C23">
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -899,8 +788,8 @@
       <c r="B24">
         <v>0</v>
       </c>
-      <c r="C24" t="s">
-        <v>30</v>
+      <c r="C24">
+        <v>0</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -913,8 +802,8 @@
       <c r="B25">
         <v>0</v>
       </c>
-      <c r="C25" t="s">
-        <v>31</v>
+      <c r="C25">
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -927,8 +816,8 @@
       <c r="B26">
         <v>0</v>
       </c>
-      <c r="C26" t="s">
-        <v>32</v>
+      <c r="C26">
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -941,8 +830,8 @@
       <c r="B27">
         <v>0</v>
       </c>
-      <c r="C27" t="s">
-        <v>33</v>
+      <c r="C27">
+        <v>0</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -955,8 +844,8 @@
       <c r="B28">
         <v>0</v>
       </c>
-      <c r="C28" t="s">
-        <v>34</v>
+      <c r="C28">
+        <v>0</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -969,8 +858,8 @@
       <c r="B29">
         <v>0</v>
       </c>
-      <c r="C29" t="s">
-        <v>35</v>
+      <c r="C29">
+        <v>0</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -983,8 +872,8 @@
       <c r="B30">
         <v>0</v>
       </c>
-      <c r="C30" t="s">
-        <v>36</v>
+      <c r="C30">
+        <v>0</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -997,8 +886,8 @@
       <c r="B31">
         <v>0</v>
       </c>
-      <c r="C31" t="s">
-        <v>37</v>
+      <c r="C31">
+        <v>0</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1011,8 +900,8 @@
       <c r="B32">
         <v>0</v>
       </c>
-      <c r="C32" t="s">
-        <v>38</v>
+      <c r="C32">
+        <v>0</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1025,8 +914,8 @@
       <c r="B33">
         <v>0</v>
       </c>
-      <c r="C33" t="s">
-        <v>39</v>
+      <c r="C33">
+        <v>0</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1039,8 +928,8 @@
       <c r="B34">
         <v>0</v>
       </c>
-      <c r="C34" t="s">
-        <v>40</v>
+      <c r="C34">
+        <v>0</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1053,8 +942,8 @@
       <c r="B35">
         <v>0</v>
       </c>
-      <c r="C35" t="s">
-        <v>41</v>
+      <c r="C35">
+        <v>0</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1067,8 +956,8 @@
       <c r="B36">
         <v>0</v>
       </c>
-      <c r="C36" t="s">
-        <v>42</v>
+      <c r="C36">
+        <v>0</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1081,8 +970,8 @@
       <c r="B37">
         <v>0</v>
       </c>
-      <c r="C37" t="s">
-        <v>50</v>
+      <c r="C37">
+        <v>0</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1095,8 +984,8 @@
       <c r="B38">
         <v>0</v>
       </c>
-      <c r="C38" t="s">
-        <v>51</v>
+      <c r="C38">
+        <v>0</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1109,10 +998,38 @@
       <c r="B39">
         <v>0</v>
       </c>
-      <c r="C39" t="s">
-        <v>52</v>
+      <c r="C39">
+        <v>0</v>
       </c>
       <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
         <v>0</v>
       </c>
     </row>

--- a/0_drop_list.xlsx
+++ b/0_drop_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksmir\PycharmProjects\poor-almanac-8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B21CF32-10BB-470D-A223-9CD10230CEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491E0F8B-3186-4E99-80F5-B9A055836F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19656" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -453,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C41" sqref="C2:C41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
